--- a/jayud-tools/src/main/resources/template_data/model2.xlsx
+++ b/jayud-tools/src/main/resources/template_data/model2.xlsx
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
@@ -200,17 +200,34 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,75 +247,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,33 +269,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,49 +365,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,133 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,58 +672,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +701,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8163560" y="1104900"/>
+          <a:off x="8555990" y="1104900"/>
           <a:ext cx="575310" cy="831850"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
@@ -1498,12 +1498,12 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.0555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.1388888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="7" width="14.0277777777778" style="1" customWidth="1"/>

--- a/jayud-tools/src/main/resources/template_data/model2.xlsx
+++ b/jayud-tools/src/main/resources/template_data/model2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="24855" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>深圳博亚通供应链管理有限公司</t>
-  </si>
-  <si>
-    <t>地址：深圳市龙华新区龙华街道办创业路1号汇海广场B17F</t>
-  </si>
-  <si>
-    <t>电话:（0755-88357666）</t>
-  </si>
-  <si>
-    <t>网址：www.bytgyl.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>{companyName}</t>
+  </si>
+  <si>
+    <t>地址：深圳市龙华新区龙华街道办创业路1号汇海广场</t>
   </si>
   <si>
     <t>送货单</t>
@@ -131,12 +125,12 @@
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +151,18 @@
     <font>
       <b/>
       <sz val="24"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -192,24 +198,67 @@
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,11 +272,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,23 +318,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,76 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,37 +371,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,139 +515,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,17 +702,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,17 +738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,141 +777,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,46 +919,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,46 +962,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,13 +1071,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>257735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>405065</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>12969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!clearandprint">
@@ -1087,8 +1087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8555990" y="1104900"/>
-          <a:ext cx="575310" cy="831850"/>
+          <a:off x="9439910" y="742950"/>
+          <a:ext cx="651510" cy="831850"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
           <a:avLst/>
@@ -1226,12 +1226,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Excel模板"/>
     </sheetNames>
     <definedNames>
       <definedName name="clearandprint"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1495,24 +1497,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1388888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="7" width="14.0277777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="5" customWidth="1"/>
+    <col min="4" max="7" width="14" style="5" customWidth="1"/>
     <col min="8" max="8" width="10" style="6"/>
-    <col min="9" max="32" width="10" style="1"/>
-    <col min="33" max="16384" width="9.77777777777778" style="1"/>
+    <col min="9" max="32" width="10" style="5"/>
+    <col min="33" max="16384" width="9.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="1" ht="24" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1522,9 +1524,8 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1534,229 +1535,199 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="25.5" customHeight="1" spans="1:7">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="1" customFormat="1" ht="25.5" customHeight="1" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="25.5" customHeight="1" spans="1:8">
-      <c r="A5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="6"/>
+    <row r="5" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="25.5" customHeight="1" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" s="3" customFormat="1" ht="48.75" customHeight="1" spans="1:8">
+      <c r="A6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
+    <row r="7" s="3" customFormat="1" ht="48.75" customHeight="1" spans="1:8">
       <c r="A7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="2"/>
     </row>
-    <row r="8" s="4" customFormat="1" ht="48.75" customHeight="1" spans="1:8">
+    <row r="8" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="48.75" customHeight="1" spans="1:8">
+    <row r="9" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
       <c r="A9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
-    <row r="10" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3"/>
+    <row r="10" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="2"/>
     </row>
-    <row r="11" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="28" t="s">
+    <row r="11" s="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="6"/>
     </row>
-    <row r="12" s="4" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="3"/>
+    <row r="12" ht="35.25" customHeight="1" spans="1:7">
+      <c r="A12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
-    <row r="13" s="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32" t="s">
-        <v>32</v>
-      </c>
+    <row r="13" ht="26.45" customHeight="1" spans="1:7">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
-        <v>33</v>
-      </c>
+      <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
-      <c r="A14" s="33" t="s">
-        <v>34</v>
-      </c>
+    <row r="14" ht="15" spans="1:7">
+      <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="26.45" customHeight="1" spans="1:8">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
